--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H2">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I2">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J2">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>326.390388718283</v>
+        <v>243.39878477102</v>
       </c>
       <c r="R2">
-        <v>1305.561554873132</v>
+        <v>973.59513908408</v>
       </c>
       <c r="S2">
-        <v>0.04954295470080704</v>
+        <v>0.04696059006353297</v>
       </c>
       <c r="T2">
-        <v>0.03043377747258416</v>
+        <v>0.03180737990945685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H3">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I3">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J3">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>83.10113217232367</v>
+        <v>63.85846964264267</v>
       </c>
       <c r="R3">
-        <v>498.606793033942</v>
+        <v>383.1508178558561</v>
       </c>
       <c r="S3">
-        <v>0.01261396097773203</v>
+        <v>0.01232065072877784</v>
       </c>
       <c r="T3">
-        <v>0.01162295881712632</v>
+        <v>0.01251754773306016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H4">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I4">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J4">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>249.5118032058935</v>
+        <v>131.0865157845494</v>
       </c>
       <c r="R4">
-        <v>1497.070819235361</v>
+        <v>786.5190947072962</v>
       </c>
       <c r="S4">
-        <v>0.03787351708513659</v>
+        <v>0.02529141686720537</v>
       </c>
       <c r="T4">
-        <v>0.03489802530048895</v>
+        <v>0.02569560040627581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H5">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I5">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J5">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>58.61542488448275</v>
+        <v>64.92691145585601</v>
       </c>
       <c r="R5">
-        <v>234.461699537931</v>
+        <v>259.7076458234241</v>
       </c>
       <c r="S5">
-        <v>0.008897263645612425</v>
+        <v>0.01252679250571502</v>
       </c>
       <c r="T5">
-        <v>0.005465506519357242</v>
+        <v>0.008484655915463568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H6">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I6">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J6">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>252.4000772860663</v>
+        <v>44.67338630767868</v>
       </c>
       <c r="R6">
-        <v>1514.400463716398</v>
+        <v>268.0403178460721</v>
       </c>
       <c r="S6">
-        <v>0.03831192960236616</v>
+        <v>0.008619141558649753</v>
       </c>
       <c r="T6">
-        <v>0.03530199441389174</v>
+        <v>0.008756884539093105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H7">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I7">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J7">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>216.0688186683245</v>
+        <v>222.5608862247894</v>
       </c>
       <c r="R7">
-        <v>1296.412912009947</v>
+        <v>1335.365317348736</v>
       </c>
       <c r="S7">
-        <v>0.03279719031426878</v>
+        <v>0.04294019196526137</v>
       </c>
       <c r="T7">
-        <v>0.03022051463558114</v>
+        <v>0.04362642156038493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I8">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J8">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>248.6610679011873</v>
+        <v>241.3110851515283</v>
       </c>
       <c r="R8">
-        <v>1491.966407407124</v>
+        <v>1447.86651090917</v>
       </c>
       <c r="S8">
-        <v>0.03774438356245858</v>
+        <v>0.04655779591606433</v>
       </c>
       <c r="T8">
-        <v>0.03477903701293625</v>
+        <v>0.04730183864105198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I9">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J9">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
         <v>63.31073764431044</v>
@@ -1013,10 +1013,10 @@
         <v>569.796638798794</v>
       </c>
       <c r="S9">
-        <v>0.00960996743655354</v>
+        <v>0.0122149730530961</v>
       </c>
       <c r="T9">
-        <v>0.01328245615467287</v>
+        <v>0.01861527182485206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I10">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J10">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>190.0909879202363</v>
+        <v>129.9621499855115</v>
       </c>
       <c r="R10">
-        <v>1710.818891282127</v>
+        <v>1169.659349869604</v>
       </c>
       <c r="S10">
-        <v>0.02885400284164798</v>
+        <v>0.02507448529369836</v>
       </c>
       <c r="T10">
-        <v>0.03988067911377261</v>
+        <v>0.03821280305584791</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I11">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J11">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>44.65626026701949</v>
+        <v>64.37001513252933</v>
       </c>
       <c r="R11">
-        <v>267.9375616021169</v>
+        <v>386.220090795176</v>
       </c>
       <c r="S11">
-        <v>0.006778395308159596</v>
+        <v>0.01241934669421585</v>
       </c>
       <c r="T11">
-        <v>0.006245858033969175</v>
+        <v>0.012617820964209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I12">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J12">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>192.2914243975095</v>
+        <v>44.29021014809478</v>
       </c>
       <c r="R12">
-        <v>1730.622819577586</v>
+        <v>398.611891332853</v>
       </c>
       <c r="S12">
-        <v>0.02918800815701175</v>
+        <v>0.0085452127649244</v>
       </c>
       <c r="T12">
-        <v>0.04034232593890878</v>
+        <v>0.01302266142780756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I13">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J13">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>164.6123937693143</v>
+        <v>220.6519191035182</v>
       </c>
       <c r="R13">
-        <v>1481.511543923829</v>
+        <v>1985.867271931664</v>
       </c>
       <c r="S13">
-        <v>0.02498659473316691</v>
+        <v>0.04257188189949374</v>
       </c>
       <c r="T13">
-        <v>0.03453532503507568</v>
+        <v>0.06487833826646923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H14">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I14">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J14">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>117.2450288786093</v>
+        <v>46.36424053112666</v>
       </c>
       <c r="R14">
-        <v>703.470173271656</v>
+        <v>278.1854431867599</v>
       </c>
       <c r="S14">
-        <v>0.01779667954512405</v>
+        <v>0.008945369613236115</v>
       </c>
       <c r="T14">
-        <v>0.0163985027224781</v>
+        <v>0.009088326062356966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H15">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I15">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J15">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>29.85135279151512</v>
+        <v>12.16419157247022</v>
       </c>
       <c r="R15">
-        <v>268.662175123636</v>
+        <v>109.477724152232</v>
       </c>
       <c r="S15">
-        <v>0.004531151253918649</v>
+        <v>0.00234692056670067</v>
       </c>
       <c r="T15">
-        <v>0.006262749406563001</v>
+        <v>0.003576640252136714</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H16">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I16">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J16">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>89.62892163371534</v>
+        <v>24.97024278054578</v>
       </c>
       <c r="R16">
-        <v>806.6602947034381</v>
+        <v>224.732185024912</v>
       </c>
       <c r="S16">
-        <v>0.01360481729201301</v>
+        <v>0.004817679497074138</v>
       </c>
       <c r="T16">
-        <v>0.01880395436993334</v>
+        <v>0.007342006651444888</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H17">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I17">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J17">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>21.055666529583</v>
+        <v>12.36771556815467</v>
       </c>
       <c r="R17">
-        <v>126.333999177498</v>
+        <v>74.206293408928</v>
       </c>
       <c r="S17">
-        <v>0.003196049789232033</v>
+        <v>0.002386187841343889</v>
       </c>
       <c r="T17">
-        <v>0.002944955604612013</v>
+        <v>0.002424321641900228</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H18">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I18">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J18">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>90.6664392495649</v>
+        <v>8.509687630764891</v>
       </c>
       <c r="R18">
-        <v>815.9979532460841</v>
+        <v>76.587188676884</v>
       </c>
       <c r="S18">
-        <v>0.01376230259188711</v>
+        <v>0.001641832159404632</v>
       </c>
       <c r="T18">
-        <v>0.01902162332712738</v>
+        <v>0.002502105555636432</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H19">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I19">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J19">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>77.61562766604735</v>
+        <v>42.39489721139911</v>
       </c>
       <c r="R19">
-        <v>698.540648994426</v>
+        <v>381.554074902592</v>
       </c>
       <c r="S19">
-        <v>0.01178131360005421</v>
+        <v>0.008179537094250825</v>
       </c>
       <c r="T19">
-        <v>0.01628359121613132</v>
+        <v>0.01246538209696219</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H20">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I20">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J20">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>699.9500748433429</v>
+        <v>949.318513256055</v>
       </c>
       <c r="R20">
-        <v>2799.800299373372</v>
+        <v>3797.27405302422</v>
       </c>
       <c r="S20">
-        <v>0.1062457598306348</v>
+        <v>0.1831585050134076</v>
       </c>
       <c r="T20">
-        <v>0.06526578464320962</v>
+        <v>0.1240570475100058</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H21">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I21">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J21">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>178.2118766180637</v>
+        <v>249.064626666034</v>
       </c>
       <c r="R21">
-        <v>1069.271259708382</v>
+        <v>1494.387759996204</v>
       </c>
       <c r="S21">
-        <v>0.0270508668012747</v>
+        <v>0.04805373964045816</v>
       </c>
       <c r="T21">
-        <v>0.02492564479578056</v>
+        <v>0.04882168912527466</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H22">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I22">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J22">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>535.0825617570636</v>
+        <v>511.2714773394441</v>
       </c>
       <c r="R22">
-        <v>3210.495370542381</v>
+        <v>3067.628864036665</v>
       </c>
       <c r="S22">
-        <v>0.0812204404131617</v>
+        <v>0.09864309832566262</v>
       </c>
       <c r="T22">
-        <v>0.07483944461993843</v>
+        <v>0.1002195191642214</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H23">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I23">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J23">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>125.7018357555878</v>
+        <v>253.231827396204</v>
       </c>
       <c r="R23">
-        <v>502.807343022351</v>
+        <v>1012.927309584816</v>
       </c>
       <c r="S23">
-        <v>0.01908034234434099</v>
+        <v>0.04885774614109073</v>
       </c>
       <c r="T23">
-        <v>0.01172087729759362</v>
+        <v>0.03309236299899589</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H24">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I24">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J24">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>541.2765176101263</v>
+        <v>174.237815984233</v>
       </c>
       <c r="R24">
-        <v>3247.659105660758</v>
+        <v>1045.426895905398</v>
       </c>
       <c r="S24">
-        <v>0.08216062396284324</v>
+        <v>0.03361689195654143</v>
       </c>
       <c r="T24">
-        <v>0.07570576366894922</v>
+        <v>0.03415412537588227</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H25">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I25">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J25">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>463.3634782939145</v>
+        <v>868.0452937291042</v>
       </c>
       <c r="R25">
-        <v>2780.180869763487</v>
+        <v>5208.271762374625</v>
       </c>
       <c r="S25">
-        <v>0.07033416610480564</v>
+        <v>0.1674779076392703</v>
       </c>
       <c r="T25">
-        <v>0.06480843864320099</v>
+        <v>0.1701543813924481</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H26">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I26">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J26">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N26">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O26">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P26">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q26">
-        <v>251.3319019632847</v>
+        <v>69.90894384345832</v>
       </c>
       <c r="R26">
-        <v>1507.991411779708</v>
+        <v>419.4536630607499</v>
       </c>
       <c r="S26">
-        <v>0.03814979075435378</v>
+        <v>0.01348801004366426</v>
       </c>
       <c r="T26">
-        <v>0.03515259382858544</v>
+        <v>0.01370356268205894</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H27">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I27">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J27">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P27">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q27">
-        <v>63.9907495015109</v>
+        <v>18.34141518979445</v>
       </c>
       <c r="R27">
-        <v>575.9167455135981</v>
+        <v>165.07273670815</v>
       </c>
       <c r="S27">
-        <v>0.009713186764701015</v>
+        <v>0.003538734512266744</v>
       </c>
       <c r="T27">
-        <v>0.01342512117507853</v>
+        <v>0.005392930837873085</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H28">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I28">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J28">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N28">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O28">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P28">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q28">
-        <v>192.1327288719677</v>
+        <v>37.65063937865555</v>
       </c>
       <c r="R28">
-        <v>1729.194559847709</v>
+        <v>338.8557544079</v>
       </c>
       <c r="S28">
-        <v>0.02916391968656378</v>
+        <v>0.007264195025272252</v>
       </c>
       <c r="T28">
-        <v>0.04030903196006122</v>
+        <v>0.01107042679475301</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H29">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I29">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J29">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N29">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O29">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P29">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q29">
-        <v>45.1359069685065</v>
+        <v>18.64829280543334</v>
       </c>
       <c r="R29">
-        <v>270.815441811039</v>
+        <v>111.8897568326</v>
       </c>
       <c r="S29">
-        <v>0.006851201112575219</v>
+        <v>0.003597942506757143</v>
       </c>
       <c r="T29">
-        <v>0.006312943929340533</v>
+        <v>0.003655441425990834</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H30">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I30">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J30">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N30">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O30">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P30">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q30">
-        <v>194.3567999324291</v>
+        <v>12.83107989885278</v>
       </c>
       <c r="R30">
-        <v>1749.211199391862</v>
+        <v>115.479719089675</v>
       </c>
       <c r="S30">
-        <v>0.02950151250672162</v>
+        <v>0.002475587886641766</v>
       </c>
       <c r="T30">
-        <v>0.04077563726975485</v>
+        <v>0.003772725591438515</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H31">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I31">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J31">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N31">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O31">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P31">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q31">
-        <v>166.3804726729937</v>
+        <v>63.92388734182222</v>
       </c>
       <c r="R31">
-        <v>1497.424254056943</v>
+        <v>575.3149860764</v>
       </c>
       <c r="S31">
-        <v>0.02525497228367146</v>
+        <v>0.01233327221231137</v>
       </c>
       <c r="T31">
-        <v>0.03490626417415288</v>
+        <v>0.01879555638183564</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H32">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I32">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J32">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N32">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O32">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P32">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q32">
-        <v>169.330671388338</v>
+        <v>86.99680615062665</v>
       </c>
       <c r="R32">
-        <v>1015.984028330028</v>
+        <v>521.98083690376</v>
       </c>
       <c r="S32">
-        <v>0.02570278437117395</v>
+        <v>0.01678488803598435</v>
       </c>
       <c r="T32">
-        <v>0.02368347299940246</v>
+        <v>0.01705312826486935</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H33">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I33">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J33">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P33">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q33">
-        <v>43.11269875050201</v>
+        <v>22.82461233240356</v>
       </c>
       <c r="R33">
-        <v>388.014288754518</v>
+        <v>205.421510991632</v>
       </c>
       <c r="S33">
-        <v>0.006544097360260339</v>
+        <v>0.00440370835914166</v>
       </c>
       <c r="T33">
-        <v>0.009044951175270731</v>
+        <v>0.00671112640089017</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H34">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I34">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J34">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N34">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O34">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P34">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q34">
-        <v>129.446217218841</v>
+        <v>46.85359548281244</v>
       </c>
       <c r="R34">
-        <v>1165.015954969569</v>
+        <v>421.682359345312</v>
       </c>
       <c r="S34">
-        <v>0.01964870381461889</v>
+        <v>0.009039784206568185</v>
       </c>
       <c r="T34">
-        <v>0.02715753707147069</v>
+        <v>0.01377637425083131</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H35">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I35">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J35">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N35">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O35">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P35">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q35">
-        <v>30.4095634935165</v>
+        <v>23.20650012775467</v>
       </c>
       <c r="R35">
-        <v>182.457380961099</v>
+        <v>139.239000766528</v>
       </c>
       <c r="S35">
-        <v>0.004615882325906895</v>
+        <v>0.004477388579955503</v>
       </c>
       <c r="T35">
-        <v>0.004253240538275655</v>
+        <v>0.00454894197577915</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H36">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I36">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J36">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N36">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O36">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P36">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q36">
-        <v>130.944647951038</v>
+        <v>15.96738427579822</v>
       </c>
       <c r="R36">
-        <v>1178.501831559342</v>
+        <v>143.706458482184</v>
       </c>
       <c r="S36">
-        <v>0.01987615133897479</v>
+        <v>0.003080696512384319</v>
       </c>
       <c r="T36">
-        <v>0.02747190460598021</v>
+        <v>0.004694893941937264</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H37">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I37">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J37">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N37">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O37">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P37">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q37">
-        <v>112.096064699907</v>
+        <v>79.54882064766578</v>
       </c>
       <c r="R37">
-        <v>1008.864582299163</v>
+        <v>715.939385828992</v>
       </c>
       <c r="S37">
-        <v>0.01701511578626684</v>
+        <v>0.01534789731997595</v>
       </c>
       <c r="T37">
-        <v>0.02351751250874411</v>
+        <v>0.02338975938050503</v>
       </c>
     </row>
   </sheetData>
